--- a/CATALOGUE WITH CORRECT FORMAT/AKRAPOVIC 1023/AKRAPOVIC-CATALOGUE-ASD.xlsx
+++ b/CATALOGUE WITH CORRECT FORMAT/AKRAPOVIC 1023/AKRAPOVIC-CATALOGUE-ASD.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allst\Desktop\AKRAPOVIC 1023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f0cf8ba9d15ebdd/Documentos/catalogos/CATALOGUE WITH CORRECT FORMAT/AKRAPOVIC 1023/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA9046-D7E9-4BAC-ACFD-8B9048AF94A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B85A7B54-4291-4764-9DD3-8095E3A1003F}"/>
+    <workbookView minimized="1" xWindow="-23895" yWindow="3600" windowWidth="18270" windowHeight="11385" xr2:uid="{B85A7B54-4291-4764-9DD3-8095E3A1003F}"/>
   </bookViews>
   <sheets>
     <sheet name="15-09-2023" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4521,15 +4521,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4559,6 +4550,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4701,7 +4701,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5000,10 +5000,10 @@
   <dimension ref="B1:G855"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="20" style="5" customWidth="1"/>
@@ -5020,48 +5020,48 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>1377</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="2:7" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="30" t="str">
@@ -5256,13 +5256,13 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="str">
+      <c r="B23" s="24" t="str">
         <f>UPPER("Alfa Romeo")</f>
         <v>ALFA ROMEO</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
@@ -5391,13 +5391,13 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="14" t="str">
+      <c r="B33" s="24" t="str">
         <f>UPPER("Audi")</f>
         <v>AUDI</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
@@ -6198,12 +6198,12 @@
       </c>
     </row>
     <row r="91" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="16"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="26"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
@@ -10700,13 +10700,13 @@
       </c>
     </row>
     <row r="413" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B413" s="14" t="str">
+      <c r="B413" s="24" t="str">
         <f>UPPER("Chevrolet")</f>
         <v>CHEVROLET</v>
       </c>
-      <c r="C413" s="15"/>
-      <c r="D413" s="15"/>
-      <c r="E413" s="16"/>
+      <c r="C413" s="25"/>
+      <c r="D413" s="25"/>
+      <c r="E413" s="26"/>
     </row>
     <row r="414" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B414" s="1" t="s">
@@ -10905,13 +10905,13 @@
       </c>
     </row>
     <row r="428" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B428" s="14" t="str">
+      <c r="B428" s="24" t="str">
         <f>UPPER("Cupra")</f>
         <v>CUPRA</v>
       </c>
-      <c r="C428" s="15"/>
-      <c r="D428" s="15"/>
-      <c r="E428" s="16"/>
+      <c r="C428" s="25"/>
+      <c r="D428" s="25"/>
+      <c r="E428" s="26"/>
     </row>
     <row r="429" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B429" s="1" t="s">
@@ -10956,13 +10956,13 @@
       </c>
     </row>
     <row r="432" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B432" s="14" t="str">
+      <c r="B432" s="24" t="str">
         <f>UPPER("Ferrari")</f>
         <v>FERRARI</v>
       </c>
-      <c r="C432" s="15"/>
-      <c r="D432" s="15"/>
-      <c r="E432" s="16"/>
+      <c r="C432" s="25"/>
+      <c r="D432" s="25"/>
+      <c r="E432" s="26"/>
     </row>
     <row r="433" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B433" s="1" t="s">
@@ -11035,13 +11035,13 @@
       </c>
     </row>
     <row r="438" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B438" s="14" t="str">
+      <c r="B438" s="24" t="str">
         <f>UPPER("Lamborghini")</f>
         <v>LAMBORGHINI</v>
       </c>
-      <c r="C438" s="15"/>
-      <c r="D438" s="15"/>
-      <c r="E438" s="16"/>
+      <c r="C438" s="25"/>
+      <c r="D438" s="25"/>
+      <c r="E438" s="26"/>
     </row>
     <row r="439" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B439" s="1" t="s">
@@ -11305,13 +11305,13 @@
       </c>
     </row>
     <row r="458" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B458" s="14" t="str">
+      <c r="B458" s="24" t="str">
         <f>UPPER("Mercedes-AMG")</f>
         <v>MERCEDES-AMG</v>
       </c>
-      <c r="C458" s="15"/>
-      <c r="D458" s="15"/>
-      <c r="E458" s="16"/>
+      <c r="C458" s="25"/>
+      <c r="D458" s="25"/>
+      <c r="E458" s="26"/>
     </row>
     <row r="459" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B459" s="1" t="s">
@@ -12434,12 +12434,12 @@
       </c>
     </row>
     <row r="539" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B539" s="14" t="s">
+      <c r="B539" s="24" t="s">
         <v>867</v>
       </c>
-      <c r="C539" s="15"/>
-      <c r="D539" s="15"/>
-      <c r="E539" s="16"/>
+      <c r="C539" s="25"/>
+      <c r="D539" s="25"/>
+      <c r="E539" s="26"/>
     </row>
     <row r="540" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B540" s="1" t="s">
@@ -12834,13 +12834,13 @@
       </c>
     </row>
     <row r="568" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B568" s="14" t="str">
+      <c r="B568" s="24" t="str">
         <f>UPPER("Nissan")</f>
         <v>NISSAN</v>
       </c>
-      <c r="C568" s="15"/>
-      <c r="D568" s="15"/>
-      <c r="E568" s="16"/>
+      <c r="C568" s="25"/>
+      <c r="D568" s="25"/>
+      <c r="E568" s="26"/>
     </row>
     <row r="569" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B569" s="1" t="s">
@@ -12969,13 +12969,13 @@
       </c>
     </row>
     <row r="578" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B578" s="14" t="str">
+      <c r="B578" s="24" t="str">
         <f>UPPER("Porsche")</f>
         <v>PORSCHE</v>
       </c>
-      <c r="C578" s="15"/>
-      <c r="D578" s="15"/>
-      <c r="E578" s="16"/>
+      <c r="C578" s="25"/>
+      <c r="D578" s="25"/>
+      <c r="E578" s="26"/>
     </row>
     <row r="579" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B579" s="1" t="s">
@@ -16380,13 +16380,13 @@
       </c>
     </row>
     <row r="822" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B822" s="14" t="str">
+      <c r="B822" s="24" t="str">
         <f>UPPER("Renault")</f>
         <v>RENAULT</v>
       </c>
-      <c r="C822" s="15"/>
-      <c r="D822" s="15"/>
-      <c r="E822" s="16"/>
+      <c r="C822" s="25"/>
+      <c r="D822" s="25"/>
+      <c r="E822" s="26"/>
     </row>
     <row r="823" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B823" s="1" t="s">
@@ -16501,13 +16501,13 @@
       </c>
     </row>
     <row r="831" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B831" s="14" t="str">
+      <c r="B831" s="24" t="str">
         <f>UPPER("Toyota")</f>
         <v>TOYOTA</v>
       </c>
-      <c r="C831" s="15"/>
-      <c r="D831" s="15"/>
-      <c r="E831" s="16"/>
+      <c r="C831" s="25"/>
+      <c r="D831" s="25"/>
+      <c r="E831" s="26"/>
     </row>
     <row r="832" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B832" s="1" t="s">
@@ -16636,13 +16636,13 @@
       </c>
     </row>
     <row r="841" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B841" s="14" t="str">
+      <c r="B841" s="24" t="str">
         <f>UPPER("Volkswagen")</f>
         <v>VOLKSWAGEN</v>
       </c>
-      <c r="C841" s="15"/>
-      <c r="D841" s="15"/>
-      <c r="E841" s="16"/>
+      <c r="C841" s="25"/>
+      <c r="D841" s="25"/>
+      <c r="E841" s="26"/>
     </row>
     <row r="842" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B842" s="1" t="s">
@@ -16842,6 +16842,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B822:E822"/>
+    <mergeCell ref="B831:E831"/>
+    <mergeCell ref="B841:E841"/>
+    <mergeCell ref="B578:E578"/>
+    <mergeCell ref="B458:E458"/>
+    <mergeCell ref="B539:E539"/>
+    <mergeCell ref="B568:E568"/>
     <mergeCell ref="B2:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B432:E432"/>
@@ -16853,13 +16860,6 @@
     <mergeCell ref="B91:E91"/>
     <mergeCell ref="B413:E413"/>
     <mergeCell ref="B428:E428"/>
-    <mergeCell ref="B822:E822"/>
-    <mergeCell ref="B831:E831"/>
-    <mergeCell ref="B841:E841"/>
-    <mergeCell ref="B578:E578"/>
-    <mergeCell ref="B458:E458"/>
-    <mergeCell ref="B539:E539"/>
-    <mergeCell ref="B568:E568"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
